--- a/GFXScraper/GFXCards.xlsx
+++ b/GFXScraper/GFXCards.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamie\Documents\RPA Projects\RPA-Projects\GFXScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580669D-940C-4BCF-A32B-AEF2050EA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDF883-ACCE-4894-ACE5-C4367A1F1918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GFX Cards" sheetId="1" r:id="rId1"/>
+    <sheet name="&quot;3080 Ti&quot;" sheetId="4" r:id="rId1"/>
+    <sheet name="&quot;3070 Ti&quot;" sheetId="3" r:id="rId2"/>
+    <sheet name="&quot;3060 Ti&quot;" sheetId="2" r:id="rId3"/>
+    <sheet name="GFX" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>GFX Cards</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>"3060 Ti"</t>
   </si>
@@ -37,6 +37,249 @@
   </si>
   <si>
     <t>"3080 Ti"</t>
+  </si>
+  <si>
+    <t>GFX</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 3060 Ti Founders Edition 8GB GDDR6 PCI Express 4.0 Graphics Card</t>
+  </si>
+  <si>
+    <t>Only 1 left in stock.</t>
+  </si>
+  <si>
+    <t>PNY GeForce RTX™ 3060 Ti 8GB XLR8 Gaming REVEL EPIC-X RGB™ Dual Fan Graphics Card LHR</t>
+  </si>
+  <si>
+    <t>Only 3 left in stock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£605.00
+£605
+.
+00 </t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3060 Ti VISION OC 8GB V2 LHR Graphics Card</t>
+  </si>
+  <si>
+    <t>Inno3D INNO3D GeForce RTX 3060 Ti ICHILL X3 RGB</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3060 Ti GAMING OC PRO 8GB Graphics Card</t>
+  </si>
+  <si>
+    <t>ZOTAC Gaming GeForce RTX 3060 Ti Twin Edge OC</t>
+  </si>
+  <si>
+    <t>GIGABYTE GeForce RTX 3060 Ti GAMING OC 8G Graphics Card, 3x WINDFORCE Fans, 8GB 256-Bit GDDR6, GV-N306TGAMING OC-8GD Video Card</t>
+  </si>
+  <si>
+    <t>Evga Geforce Rtx 3060 Ti Xc Gaming, 08G-P5-3663-Kr, 8Gb Gddr6, Dualfan, Metal Backplate</t>
+  </si>
+  <si>
+    <t>EVGA GeForce RTX 3060 TI Graphics Card (08G-P5-3663-KR)</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GeForce RTX 3060 Ti ELITE 8GB V2 LHR Graphics Card</t>
+  </si>
+  <si>
+    <t>In stock on August 30, 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£654.99
+£654
+.
+99 </t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3060 Ti EAGLE OC 8GB V2 LHR Graphics Card</t>
+  </si>
+  <si>
+    <t>Only 5 left in stock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£708.00
+£708
+.
+00 </t>
+  </si>
+  <si>
+    <t>RTX3060TI VENTUS 3X LHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£850.35
+£850
+.
+35 </t>
+  </si>
+  <si>
+    <t>EVGA GeForce RTX 3060 Ti FTW3 ULTRA GAMING, 08G-P5-3667-KL, 8GB GDDR6, iCX3 Cooling, ARGB LED, Metal Backplate, LHR</t>
+  </si>
+  <si>
+    <t>Temporarily out of stock.</t>
+  </si>
+  <si>
+    <t>ASUS DUAL NVIDIA GEFORCE RTX 3060 TI V2 MINI 8GB GDDR6 GAMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£3,721.78
+£3,721
+.
+78 </t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3060 Ti GAMING OC 8GB V2 LHR Graphics Card</t>
+  </si>
+  <si>
+    <t>Only 2 left in stock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£845.75
+£845
+.
+75 </t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX NVIDIA GEFORCE RTX 3060 TI V2 GAMING GRAPHICS C</t>
+  </si>
+  <si>
+    <t>S - TUF-RTX3070TI-O8G-GAMING</t>
+  </si>
+  <si>
+    <t>Only 4 left in stock.</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3070 Ti VISION OC 8GB Graphics Card</t>
+  </si>
+  <si>
+    <t>ASUSTEK - VIDEO CARDS TUF GAMING NVIDIA GEFORCE RTX 3070 TI GRAPHICS CARD (PCIE, 90YV0GY1-M0NA00</t>
+  </si>
+  <si>
+    <t>Evga Geforce Rtx 3070 Ti Ftw3 Ultra Gaming, 08G-P5-3797-Kl, 8Gb Gddr6X, Icx3 Technology, Argb Led, Metal Backplate</t>
+  </si>
+  <si>
+    <t>MSI RTX 3070TI VENTUS 3X 8G OC</t>
+  </si>
+  <si>
+    <t>ASUS ROG Strix GeForce RTX™ 3070 Ti 8GB GDDR6X buffed-up design with chart-topping thermal performance</t>
+  </si>
+  <si>
+    <t>Only 11 left in stock.</t>
+  </si>
+  <si>
+    <t>MSI RTX 3070TI GAMING X TRIO</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming NVIDIA GeForce RTX 3070 Ti OC Edition Graphics Card (PCIe 4.0, 8GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GeForce RTX 3070 Ti MASTER 8GB Graphics Card</t>
+  </si>
+  <si>
+    <t>ASUSTEK - VIDEO CARDS ROG STRIX NVIDIA GEFORCE RTX 3070 TI GAMING GRAPHICS CARD, 90YV0GW1-M0NA00</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3070 Ti GAMING OC 8GB Graphics Card</t>
+  </si>
+  <si>
+    <t>RTX 3070TI SUPRIM X 8G</t>
+  </si>
+  <si>
+    <t>PNY GeForce RTX™ 3070 Ti 8GB XLR8 Gaming REVEL EPIC-X RGB™ Triple Fan Graphics Card</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming NVIDIA GeForce RTX 3070 Graphics Card (PCIe 4.0, 8GB GDDR6, HDMI 2.1 , DisplayPort 1.4a, Dual ball Fan Bearings, Military-grade Certification, GPU Tweak II)</t>
+  </si>
+  <si>
+    <t>MSI Gaming GeForce RTX 3070 Ti 8GB GDRR6X 256-Bit HDMI/DP Nvlink Torx Fan 3 Ampere Architecture OC Graphics Card (RTX 3070 Ti Gaming X Trio 8G)</t>
+  </si>
+  <si>
+    <t>Gainward GeForce RTX 3070 Ti Phoenix, 8GB GDDR6X, HDMI, 3X DP (2713)</t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GeForce RTX 3080 Ti MASTER 12GB Graphics Card</t>
+  </si>
+  <si>
+    <t>MSI RTX 3080TI SUPRIM X 12G</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming NVIDIA GeForce RTX 3080 Ti OC Edition Graphics Card (PCIe 4.0, 12GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, Dual Ball Fan Bearings, Military-Grade Certification, GPU Tweak II)</t>
+  </si>
+  <si>
+    <t>Only 10 left in stock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,975.00
+£1,975
+.
+00 </t>
+  </si>
+  <si>
+    <t>Gigabyte AORUS GeForce RTX 3080 Ti XTREME 12GB Graphics Card</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming GeForce RTX™ 3080 Ti OC Edition 12GB GDDR6X buffed-up design with chart-topping thermal performance</t>
+  </si>
+  <si>
+    <t>Evga Geforce Rtx 3080 Ti Ftw3 Ultra Gaming, 12G-P5-3967-Kr, 12Gb Gddr6X, Icx3 Technology, Argb Led, Metal Backplate</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3080 Ti EAGLE 12GB Graphics Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,397.93
+£1,397
+.
+93 </t>
+  </si>
+  <si>
+    <t>EVGA GeForce RTX 3080 Ti XC3 ULTRA GAMING 12G-P5-3955-KR 12GB GDDR6X Graphics Card</t>
+  </si>
+  <si>
+    <t>Only 6 left in stock.</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3080 Ti GAMING OC 12GB Graphics Card</t>
+  </si>
+  <si>
+    <t>Carte Graphique Nvidia Palit GeForce RTX 3080 Ti GameRock OC 12Go NED308TT19KB-1020G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,499.99
+£1,499
+.
+99 </t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3080 Ti EAGLE OC 12GB Graphics Card</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3080 Ti VISION OC 12GB Graphics Card</t>
+  </si>
+  <si>
+    <t>Palit GeForce RTX 3080 Ti GamingPro 12 GB GDDR6X Graphics Card, 10240 Core, 1365 MHz GPU, 1665 MHz Boost, NVIDIA Ampere, HDMI, DisplayPort x 3, ARGB lighting, Advanced TurboFan 3.0, NED308T019KB-132AA</t>
+  </si>
+  <si>
+    <t>Only 7 left in stock.</t>
+  </si>
+  <si>
+    <t>Inno 3D GeForce RTX 3080 Ti iChill X4 LHR, 12288 MB GDDR6X C308T4-126XX-1810VA36</t>
+  </si>
+  <si>
+    <t>RTX3080TI VENTUS 3X 12G</t>
+  </si>
+  <si>
+    <t>MSI GeForce RTX 3090 SUPRIM X 24G Gaming Graphics Card - RTX 3090, TRI FROZR 2S , TORX Fan 4.0, 24GB GDDR6X, 384 bit, PCI Express Gen 4, DisplayPort v1.4a, HDMI 2.1, Zero Frozr, 4K Resolution</t>
   </si>
 </sst>
 </file>
@@ -80,9 +323,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,33 +608,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0708775-A04B-43AD-985D-004D2478EF58}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="192.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37E9EEE-08BD-4B8A-936D-B6C09040CAD6}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="171.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139ACAC1-DEBC-43C4-880A-BCC92BF252F0}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="128.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
